--- a/inst/extdata/qacademico/fake_data_qacademico_1.xlsx
+++ b/inst/extdata/qacademico/fake_data_qacademico_1.xlsx
@@ -12,3039 +12,3033 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="1011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="1009">
   <si>
     <t xml:space="preserve">Nome</t>
   </si>
   <si>
-    <t xml:space="preserve">Situação Matrícula</t>
+    <t xml:space="preserve">Situação.Matrícula</t>
   </si>
   <si>
     <t xml:space="preserve">Cpf</t>
   </si>
   <si>
-    <t xml:space="preserve">smhKKs wmqarQ TcUkRL</t>
+    <t xml:space="preserve">qsMOyc CTQvmj tiiCfA</t>
   </si>
   <si>
     <t xml:space="preserve">Concluído</t>
   </si>
   <si>
-    <t xml:space="preserve">261.072.699-33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iEvrmc nhRHHN GhtaJz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">530.191.037-54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VYwrzE UAHlsf apMPDV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">096.016.705-89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wULARE yAHvmS wtjMOz</t>
+    <t xml:space="preserve">735.655.806-65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zcLlxS IVzGGQ ByQezU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">044.142.293-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EggLRH NaKnae vAJnMu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181.339.310-32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QEtAmo KUUVZV wyKhwB</t>
   </si>
   <si>
     <t xml:space="preserve">Abandono/Evasão</t>
   </si>
   <si>
-    <t xml:space="preserve">712.518.655-83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LgoOSq KfItsc Baxuos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">521.980.732-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jPUtkP vnEGRY qLZuMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">854.692.086-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VFBFbf VvWrpR QrCTow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">029.576.596-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oJIzAs pccIap lGMgZJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">191.575.816-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fYjnNS xKhbgY wlcDAd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">792.594.095-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rSTykK CkvlWt bcCpXO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">075.001.487-96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fIvCYj bHdqjx fzNTLn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">777.762.607-42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wcngPK WIsEBJ hGEiYC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">912.994.727-55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keiryS kOLjpy SMNJOb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">253.420.413-39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OsuRTR WrMRZz sYAMRj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">059.058.952-78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XsgJco IkOpdg HCvgEI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">354.745.817-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yrVDZH XwOSsC AtfLPZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">568.516.828-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UZMzld achEvp NNNSsb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">260.214.582-99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jNoqcc YwdZXR BEIUBn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">028.159.054-80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MWGGKk VCNRKY HoYyCb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">221.379.892-83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FQYAZK EwiZcy oqXqgI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">821.454.278-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zPDJNu oOfgeG ryJUig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">935.448.972-68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gYxAHf OoWYQA QnfgUm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">044.095.627-90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IkzVnk NabAkV hXKHfg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">492.154.312-62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zWPCWW tTstgt rtXTqV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">755.564.717-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TxegiT LLQWGH CYnCis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">078.556.181-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LYaApT ZNumXV EeliFT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">459.153.290-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HmuXTW mInOKr izmUcD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">386.492.252-38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dbsjej DJEAgq UzVtWn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">661.970.716-49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NMUAsi rqDjhI MWuRCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">345.796.736-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OlOZRC COOKxo hJCpTL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">337.691.769-64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZzFxmh vcANfa DgfOSj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">864.206.213-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xAOwMs BtqLZO lEPKzw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">394.250.522-65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lqAmZK AulFmP LdVCnk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">765.456.562-74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VdekON ZxlqJE ZdqNVS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">449.726.415-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JtoNry QziOig gfMwVc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">361.863.577-53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zDwFZH RCIjiD xwJVaF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">197.038.159-48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tllqgd IiHGFg FUSrkH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">721.903.573-52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VLIjYB GdNxfQ OSykWx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">197.711.366-53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cPtsxP YOLGaM dmHzVs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">013.437.389-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aVUdyB BOtTqw ORggAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">525.274.391-62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MwzXXY EwmKTI MdutAi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">186.022.898-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yZGiDE bepcYj sWCjOw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">308.764.189-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oHwhzS wYWbyE EjlxOa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">823.187.832-48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">btcnEN FwgELE WloLFB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">294.838.812-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XMerdx IQwkCW cLqYSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">881.780.713-61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zYslgg ZPSQYA BCmWAi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">755.119.031-58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RoOqEM VpIvFm BiFMMf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">825.959.647-58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TqnLvv tEwsez BwODdE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">785.162.167-36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MqVRui tykncT JseJip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">776.795.476-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MezPmL amwcnH FyofeW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">541.758.730-85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xIvKnJ UuHIoQ CZGtBu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">253.464.485-38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exucow plnbAF misyGg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">249.547.192-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lbINrx EsjgQB pYkTFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">661.597.900-43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QFcZTE JMgLLw qUqYBn</t>
+    <t xml:space="preserve">391.522.398-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kVCqGG fKLKRe afrYLc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">720.908.611-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BpAXmX uwwTPm nRyENh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">860.136.732-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NNCIRI tnpWuT xoxFOY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">399.615.522-56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pRdAVF zIRXut PMFgZm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">055.048.645-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yhipXr nalovX QJeSWf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">734.773.229-44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KkBjhk egSIyD BoJRsQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">837.146.188-40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vxxqco ispTso TorAbn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.011.075-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fwlNfJ UMELst MtzRGW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">390.375.999-45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JnSWtO wNckKW FWQNDL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">613.519.120-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MZDsAh WHFAms FipRig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">874.123.054-38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZbDmvJ zqNSJr QAzbTl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">366.760.730-32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiKnBO JrLqFN zobRWh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">447.852.771-80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aWOgvW fVnRWc mIJBkt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">630.242.657-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GVoMtm ksQnvF xRbWFj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">630.547.035-61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RgMPqD ccnTKO FHlFTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">413.760.828-53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yADLAl AQFGKi dKMUWx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">773.289.647-33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eYUvDN jemWTi TbVgqd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">989.431.691-83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODkwsQ iWvFed lSrXes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">406.523.994-57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clrdGU kdSudE oYSuwl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">542.456.523-84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mejVqP OxpEie TWVJYF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">519.584.085-64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RpoaLn GEbOEs zFOIOb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">708.942.843-71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bOKnzt RFuuDn TNLjHQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">650.443.636-54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zXBuaI XqCERB myntIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">241.870.120-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ySaoMO erMsRQ DbABSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136.574.008-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nWhYLw pzNsKK fZhpoY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">016.105.942-35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bciXZu jYmAZJ uItxqd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">283.274.650-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AqgEMo hoHreY WNvixp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">678.092.710-88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KNEqrA axbVIm zmSMIH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">246.341.998-61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LHoMeV VzyJzS winfjH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">332.751.965-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RYKBIQ BaUMvq YiIZmx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.626.757-39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WBchEB IFsfPP SDoqaW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">069.541.475-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sQVfrT DWnhaX sWHaEw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">382.555.977-80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOnJqK EcoEtU NrODVc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">591.129.954-56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RhnEhP cWxBUB YuFqde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">685.194.377-68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JhUcNt dBnQpL HpJscH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">824.377.590-00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nEQXds rDkVwk tufORr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">820.221.757-79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LWapQv Tnczuv qmKLLt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">565.962.718-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iEkrxR jiTliE bDgSRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">781.261.283-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zQmsLI HUeUeS rcJgPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">743.111.657-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFtXkw xelCbH naKpDw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">712.940.267-39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HCPBXj RPnBai oPSnGn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490.133.434-33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mdRUpO xBBlqK sPOlnP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">373.184.885-75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wvrKXi vizfEv zfyvLH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">829.574.176-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mcQHWy SBtocx iVgyWQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">831.069.362-79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rRpdOs zUhCNS sYbDHV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">295.338.654-80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGxSHe HaLtwC YMhdcV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">196.224.598-75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRmiNt oNggol GwDwDQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">440.479.011-67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nAFMqg pTaIGY knhcax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154.641.720-97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ceKzht cUwXLb AYfNmD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">005.950.149-54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZrBajZ ZoHKvv OALupQ</t>
   </si>
   <si>
     <t xml:space="preserve">Cancelamento Voluntário</t>
   </si>
   <si>
-    <t xml:space="preserve">826.049.972-35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZXpZNS TkEGck DhtaXb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">975.194.241-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jyQBPa IAfzQj yqaBhG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">492.619.219-63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dbekxw xnVDbQ hfSiIE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">461.636.217-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">igPpVk ztxTND nqcmoD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">821.912.346-81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cNBkdz dTABEC gdDkvA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201.672.079-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WKFKsP kXRQcO ohNwcZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">628.279.906-90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GANgpz idriWc LqCAhD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">327.777.248-56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ntawai uZMewa vrtWdE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149.185.543-93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fpVDtR MPIRGi RvuplA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">735.769.797-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZYGfSz GFZRUF xzLRFB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">420.463.809-93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gjgvwn KCDGEd NqizcD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">677.538.651-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUlkSG PcRiAz vjuKeR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">730.817.811-83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YtmiBP LljByG BGnybY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">482.317.722-91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zloVwU RjdIRI lzkDbw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">366.945.459-35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pOtpAZ xhuoLR MaBxKK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">750.262.017-35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YPjRrW gusmIn hxMmed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">447.054.886-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mvEhnU VFxSsV TYhxaq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">682.529.724-75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NiRfPw ZuKvTk ehCaOl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">487.807.950-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zMetLx KPEwCC abIyQw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">464.723.964-57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">careNt YoCxtf NKPiqN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">290.151.581-47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DkKhRU zfuRdW zePeEH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">725.320.962-53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WRZCVn wVsemi fVEMow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">899.550.752-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VdKZHF ZJrNrA IyqBQW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">014.585.376-62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bwndnx GJDBjD eJhtXV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">619.694.829-92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OBaVgz xuuYdY Whshic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">782.589.758-80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mHjyXr cdPLiX LmkYPq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">952.808.179-94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TkTRbJ QsyKQP lXhmLZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">916.696.869-34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LLEsNC ICoCcu qHsigh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">450.489.504-85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ncHEvW ISqyOk PwtjMm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">047.862.839-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asSPRr MzNnza CSjcdM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">471.644.182-95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jDPjbk oEMlzG ObAJeB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">504.454.290-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">akWhMw Cdnzsd PyeQnw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">040.651.263-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ldcvGd dmkMMK SacVMV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">357.585.857-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kpgovw lCEpuH BjKZCj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">912.161.283-66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zgbuXV UNFVbg RoZuAW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">637.628.972-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pmEiYF vumSmu bFvLdV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">901.168.740-59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAnSyj BfKwSi DSgCrS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.951.559-57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SQaeeB CQhQTh DvnTPL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">620.215.053-63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VFVaHY hUreNf akBmGX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">828.944.145-57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smRbBS JuUWua GiRKse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">249.817.287-87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMDVuP ZzMdhA gjFcxp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.881.736-36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jLdShP dUxflJ YsRaxp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">470.501.014-79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">azKWLF sAEnJM EuLsRU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">685.377.665-82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zHbfpH UqGUdP OXYTJz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141.670.008-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MoySRF SJZBDG yBzmMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">307.295.108-98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKBPjz YFefSw qTZKzm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">097.839.596-33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pFUnpy RWEXmx IsdfPU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175.468.592-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZnKtzb QyjlfX DbkEGZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">662.449.279-71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rKRzKO ZEHGRf XMeqmv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">266.593.335-41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRkgxX XQfrPm eqkguy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">603.315.296-56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VTfJws CgcADz FhEjvb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">895.790.271-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dgPpan lBBINc lZtnYU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">934.710.590-36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dtSuKy FBGVpV PNmocs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">248.203.102-45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JyzpCO InaErM dEWgtj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">446.521.878-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bhbUKC WnOccA THORXY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">786.728.282-71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTQAAI nYfzQu qFiySc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">418.546.990-46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dotjRr rdyyZa iOfrhT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">935.318.359-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kxgGrb smCmip fFokEc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">643.521.427-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iRNAvZ VOJCvF jJZtno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">529.797.118-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NwBgzM qTEBRN CXnwdW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">021.431.996-51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dPoyhT Wtzzwr cQiHou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">348.536.537-82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BsEWTq Xpocyn zYYQCd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">889.839.458-39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eyUriI yHpBQO uFMxUC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">383.294.026-38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dcDikN RDDlsG evlWUc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">518.371.079-48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAtRqL SQeDTt UzCeUj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">018.455.747-40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MKtgkL NqnEZm kChpbR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">819.309.969-41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nXZeha KyrEUR HhlIiv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">892.830.375-67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RumPIw WFDwtY hWugLZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">182.741.948-61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vJlIwW JOezSS ONqvkd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">633.749.108-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YScKlI BXFHSD gYDXzv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">443.311.640-95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kCpLvN WMaKCD AsVofb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.817.682-62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XgjmJo uRjgCO smQJqa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">273.015.601-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZsatUy btdWWz NqdTEq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">806.415.805-58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lEbZcZ MWuRhs qIWQxW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">629.640.697-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JhYhml oKOUVk QwidxR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160.071.700-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ecSDdx jEhKYm sadmkl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">651.755.330-60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BbvRZq UdwyZp OxyVNL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">389.927.671-38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">axymvk HNNjCH GnqCkh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">925.901.240-83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bkpzAL rCHEXr iRYwRo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">631.746.957-78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JafeDp OFYAOa tdDiBu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">345.788.708-59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iRsWfZ DJvZlV cgRSnx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">896.287.063-81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">llnnmQ WButdm ilCStf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">042.136.329-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VCFVIR AYnEWt YAOYkr</t>
+    <t xml:space="preserve">955.368.279-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vKUhZK ZuLfJU eZAsdO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">019.507.093-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JIMswp VVxenN RdWEjv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">430.768.753-44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iSxxwO IGcjgk qfxydU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">875.867.626-33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JQMeUW sOnEEm aRkndB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">761.650.243-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAHyky XTLurk IIUmRX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">306.341.547-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fKcUyZ fgvOjS nSIcVf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">362.229.730-83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UOvxaW JPbumR iuLBap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">838.837.415-68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HFJUid lPnrVQ xwmjNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">455.792.452-74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxaVEn nMxWNI ALYNxv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">710.035.256-43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kDfXEQ AxwxJN kFMpkg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">004.277.623-96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIKObA zTBxAD xszByV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">384.990.649-90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jOoSKl AzoyZx UoGtXx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">760.837.251-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cyRnlL NRTccv TQFCHv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">608.902.812-66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brAKUb YsHGpG OsbVIa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">206.638.888-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yvxBtv wduhYW pCEsBt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">798.775.284-78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SiJNUE kseROo CGpxbR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">522.629.861-43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zTEIlI NfwAnK CulDJJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154.140.206-99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dPrVpy iSTJtv UwiFJM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">401.191.726-63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">huydKi NLFOyl UaUNvJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">213.938.213-80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COIYfa BDFFdK gjqncv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">277.941.964-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DuKzUO yeoSpE fCQuFw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">376.218.286-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INEpvK DDbwzc RGTSuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">014.020.323-53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GfkiZg IBBAhL FsnonD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">232.580.691-85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mxYbJB bPdeXz zbGiNv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">319.668.949-88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UnUxeV yyjiMS TuLxbc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">683.743.783-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bawSLy gLBxhL Dvnyty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">579.633.260-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RVPMGB INXkyZ fNiwsO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">375.368.184-44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uqWxCe MhUQRL qLERzu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">037.540.797-71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gdPQaU EWLAWD cAfYnn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">904.150.117-38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WGVAiZ MSFiUr qTpSwM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">999.599.657-88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zYcBwe jTUZxm HLuJOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">276.488.978-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARRYaU GvTTAK BCHkMV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">884.035.727-80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glocnM svoEEZ EaKVIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">648.497.371-55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tEqQzf CKPaPB JSjcuA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">372.666.620-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wCGsnn hgmXxz TiweAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.641.648-87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FPDUuz hzKhIG qJnkst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">889.593.092-34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUfYvp yPNoNE JcmSBh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">689.813.720-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOEvIs ZmYsUe tpMoLG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">778.769.845-65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLrxan rOcAmT aawOqk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">891.837.765-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wMVsAW CVhiGT jHZsWi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">847.415.533-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBhRZD eqmPSc uBqeqD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">542.306.342-34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ToQDOh cZyLOB GIYSFG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">773.161.222-80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ybuefX CWbYHO htTOgq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">883.967.950-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KnkRhp xtPTnQ zJsXKK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">236.800.875-83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fBhDLn FZXCQv WXzIEJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">242.909.031-87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MtvIyu eMVsyS ScXXMM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">960.287.220-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UuTSJj rtstnQ jcZppc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">919.727.061-71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IViEnr QBlsMB yhIEqO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">789.007.613-65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nFgoQu pHcjTo GwHkZM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">817.711.773-65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAgNDe UdevXZ sSQGKd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">016.985.884-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jQOSPH gSploq pMsHTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">637.975.874-45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GJTUWW ueFVzz YHYOFV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.211.852-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mKrHrD NHzNxV ShaXCG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">746.082.154-00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sunLqC XIBmME yYXFWY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">671.383.900-85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IbeuMS dzUFSl LHeLKz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">875.290.808-72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GZJAOR PjaqoW XoujWX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000.783.734-86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bNDgKH TJdTyh xBVMuf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">319.330.346-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dJipIB OLvSOS ksApIK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">308.141.756-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qfVFSn ReBAbb SWUDvV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">546.957.412-91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yyToIa JIAdRk psZhZU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">422.885.267-75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roSoZL jiupNt GMscmw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">078.653.328-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oQlkuB RxANpZ aeUXUp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">725.064.404-82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zrQAGq kRonrG wPmKop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.062.864-37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">huYccL YsArwk aOsaWv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">244.013.364-47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aoJEXV GatiJW rvFxTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">539.169.371-68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZxkfMd QAkzSI cZJYti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">834.290.939-68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rClbpB emapLu lbqXOc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">557.382.389-99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qjPpiw GtEqMA ALyzDk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">989.446.310-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fuVnpq igYeRU xAReMt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">253.581.128-80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCkMIF FIWKkK ABLBhk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">384.380.372-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XSNNap DwjuHK dTSlqK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">186.390.288-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vOIkeX pggvxr UjJaTc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128.853.642-89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOFiTj BbofCZ SEoyUv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">582.021.154-89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QqEIJP usiCdN UwHoIH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.188.311-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uWIRHh lljbQC OPKenc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.124.899-70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">afsSys XLkgGe vsvolk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">268.897.941-85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kUoNeo Ydtclm AwsFMW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">473.153.836-69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fyHZTX SJxPMU CMVJkC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">418.089.829-48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urniRx GFKLPk bRzQDN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">987.552.707-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otsbqi szevJO jvifDx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">025.664.284-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUIWSV RlAGfy ZZsLlP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">045.500.889-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nSlITm tJcHMI DYSUpN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">612.493.106-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jtLUcM FcTVVy nVlWdz</t>
   </si>
   <si>
     <t xml:space="preserve">Matriculado</t>
   </si>
   <si>
-    <t xml:space="preserve">697.248.709-81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LnsXxC ehVAfz VAZNMf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">364.719.984-48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lXBRLN FPiCKS WRNEDl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.709.507-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FWFMEF rnJFyA tSLvxu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">364.092.933-93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HmOIMg eneFAM SVIYVN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">497.357.190-96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bgKILh DvLPam BnQneq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">478.862.859-72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZzowg sgHxzJ MQJsaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">328.988.962-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ppouEl gbDAVa VLzRWq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">224.370.015-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KxKeps kPynJG QNdkBd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">544.010.456-87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CkBulR MjIVXN ptTZnU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">653.186.137-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WNDAJh HgwcAp xPsmgM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">209.150.145-33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mPbePz IjOifn qDhrjP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">606.717.349-52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EfOhhy BjFhUd IfLIyG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">089.234.154-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rcoAXd pTyDgi NFufmF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">288.220.462-76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VxBSuy cRHjwd vNNOEx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">599.457.263-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AwBSFR PwKjFk daxvNt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">540.503.670-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eCptHL luVaHE qHBrUH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">939.194.155-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARBHSu pSRafl KZTcTZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">328.200.321-91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jwboKS AWWhxq OYrtga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151.598.393-37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERWTcy BsFVWk OxcUyI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">097.320.732-50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AxoOkO jpixTp xaLAOk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">495.705.775-51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dazaRL CJBalZ RqmKce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">182.799.047-88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">izVphx cafGfZ VHpAPQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">450.672.974-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yFZScT Cktzlt SqNNWt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160.624.860-79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mnKcaA KRdlXC QjTlXq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">604.133.363-37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TgvUOR uEEFbB ooXgkb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">497.756.790-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wBFjtq NHMhLI glZlBw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">793.159.907-79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lZZPrs OtUcfk XWWpsl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">519.771.483-71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vWLOVf ftLeyl bwSRhn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">223.403.878-45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JQGxRt wuXqbt UzeUwl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">756.666.761-77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gOYCPV dhFIKU raYEzt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">853.524.447-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cdGMEe hvbzck qCTGPq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">668.247.089-86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RXQvwX seOOfQ gCVrJx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">751.131.183-44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTCBAy XnqPrL GOyMCP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">182.233.795-92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rImUAi caMEuk ZCezry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">871.851.171-36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyoePW UeolIY vBNWnS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">989.363.742-42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mUvQWs GiDuVo cuFqTR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">508.943.476-32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mkQtVJ ghRBFa mdErXD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">003.423.934-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lCYhYh ReMnvI CZCjOZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">583.985.108-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mdFCQt crbKfW onPvRB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">903.357.480-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uAEVtL nTLefE XZhFqh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">244.300.442-76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUsTjv AIzMJn BWCCuH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">551.443.435-68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">peVfDV cOyJBL HsluSf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">007.969.788-39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hplikY ALfDuk OugJcU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.407.146-83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">olRhqs ogmVEl HkTzSu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">718.860.819-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QnDxvc yxvrlC EOEYBW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">248.223.584-89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AlBYOw uAQHCf MZsrIl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">446.253.107-48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IZHcqg YBvzJg qSjqla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">997.779.146-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pmgjyr JZcpvc xuCyBt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">651.444.705-47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NJEUhN zaqeNA Amqbrc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">277.773.558-69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JoTIMg DWkCbr YhdkrA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">841.990.734-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFYqQI YlvKDG SmzPhH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">725.697.694-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAajzm rYSfVG rSuYHn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">654.800.802-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XqdGjX fbYQDg GZVsAz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150.760.629-49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jkytxy Kwydnr wdIBTw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">402.682.058-43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fgJRes tKDFVX FcxwvW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">504.887.163-69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xbdDGL tXhBne VOqOWE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141.625.697-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nfZDsv CnHwYP eFzXfv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">276.897.160-66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OOcySi JSTBXI qVEREl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">518.469.977-71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tfrIAn UmJJXk aLOdPZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">306.350.308-76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XPuWjW miuals UnazuN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">073.145.287-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCNwZV OGnvuA ouMhtb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">297.951.950-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fnriBt jPPxQH dMyJXU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">864.345.660-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">szBmbo xeFWQo voUjXt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">729.300.726-84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WyYYMT emVmpW WZauON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">173.569.891-44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uBqlDJ KfTtaR yooZAa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">373.589.233-40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KdXXsv YDMZvg NHaTtQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">414.582.052-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VXVbHV itvZzr ZFGvmQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">553.652.926-87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sZZVwS ZZDbZy BALjkE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">674.487.270-80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dbJHxf IpnvlQ iGXrFc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">620.639.020-48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yzIkHK WcArjO gDluhF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">581.620.238-77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kPukto OTTCOD CGgvrq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">386.933.677-98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLBoKK gznxPn nbpYmi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">911.235.166-37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HZpgKy plbsBM DdUIUw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">474.684.712-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fhvjak OsfikS dCggZS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">768.065.190-84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PKJvgr QOTiFs RZGCnE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">096.747.293-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IAMafo Wiynun uWyrWM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">816.041.297-41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BxWTVK GrPFcG nlRrYp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">720.871.385-69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oXAlQh KyFUNN vZubXg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">268.291.823-34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">llegaS zvbsbv CMrqJP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">010.803.669-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsQKFx sppwHd YgOoom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136.592.389-47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wjXjvu vEnikr eiMVEg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">642.130.809-64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dYYUmp DjQvnH gsuSDU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">263.379.470-62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AjjpKo dagejY Lztrxo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">898.716.673-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rwPuUc Nciuan bJJwom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">925.242.631-78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qvTEpW YNMTQs iIMlWH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">402.780.708-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">onTkOZ eDNstY NJenNS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">611.502.112-33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRoZlp lEKqsY KqUoUk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">728.421.384-77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WqJUmW ONVejl QlPzcH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">358.772.162-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yWfMrr DNWDyz sUXtbf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">094.444.399-34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dQRumS SUAWuq VpDZSo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">526.411.569-60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NzOCfa RTjgdo UlhqBj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">284.742.392-54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nyeIpR DYJbub VaHCRI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">706.894.847-79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nwVAnt PxhbxY yFpkAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">662.593.050-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vtJxGj vRrkkB vCUtJt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">167.208.770-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wmYUfd YLjtnj CGGWJV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">560.154.409-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RSdRdb OZVngh chEEeN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">206.204.961-82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sSFWNr hBMIWJ wbUkiZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">026.980.238-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qpUbCJ VLokvO AhkPef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">905.708.735-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JwxiIG HGPGXy drkrlV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">402.433.240-75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CZNbcD BjDFwg buSeQA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">525.752.788-49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zycGug vCqjxY HZSHVd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">046.252.689-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GMpRql xMiyTw ujBJXM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">699.588.672-98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QiydhF OMJoxj IzYaQb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">787.248.538-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VCnRKA CXYjIT UuxZTo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">224.434.858-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aqCUZU EUOHzb DKTBYI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">936.510.655-35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TeYLlQ BaRTbA inLyMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">676.222.478-67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QyIDly TSQnJc qFeEam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">957.014.590-68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RmkGjT QhvmDm sIynLU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">949.770.657-56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cxsEyd mCBeGY QhTFUu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">916.685.222-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSNSvs COJmHs PJqFBL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">630.043.038-68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oweDcm IZeTJv oKgFwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">976.740.667-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vPdjpA EQoNzW whwGoE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">861.903.264-77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AzyKEU mWSBHO UnCpzE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">887.957.730-47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOLGwc ZpjWiQ ISXliM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">811.907.748-79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JfIFhV aygNKN GKLNyW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">266.328.977-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LWWumj XUXcfg ocqhHw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119.946.146-71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wJVJbF CcNJWe uYmsrP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">800.473.689-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETuWaG kJOxQd xTirKZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">592.473.770-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xRigFi UtPwrJ EXnQwV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179.632.479-46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vnUVip ifsOOL VQrFRt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">432.323.438-69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iBHmzK YtISVz TPeyfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">870.303.283-96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vYeAXI dOSeSU QxAvph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">439.863.303-41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IYNZYk uXJLnk ExTVyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">803.117.021-57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iWDzBB BFWArw MAzISz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">939.163.874-41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uhshiq crNCfp zOLlGh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">476.654.779-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NBoVSF MyUFIL gyKFVT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">639.266.077-96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BnseMJ kXwZNv tClJYv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">709.072.312-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WZCUtN OTIebx eeeFuU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">458.325.682-50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DfFoEK bKOSWM KCXLMn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">001.974.825-63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">htaFPT zHbDnA xIJzVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">337.331.736-45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sHRWqb UCQOoY qURpOk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">827.665.741-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUPeRn xQCHsa dkoTCg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">306.976.437-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TbyMoj YIPpjT aQIVDH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">559.439.876-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oRnJTz wmuSrn LeRwNH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">665.593.644-35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zBjUFR plPSmC GUpCZu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.777.950-74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MHKvDj mCvbtb FldxuO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">795.164.024-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">urzLmS ONbjei maXJjy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">309.963.848-52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VswYAV rBbixr KYCmGR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">843.092.286-38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUSYYO ejdZBF WcFyUh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">351.755.866-83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IbtRRh IwrAii uUNjzW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">662.290.239-52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZeQlcM frPbPN iaLJsL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">630.606.955-60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wLRyJc nuDBPc RHVasc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">616.393.167-39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LqUkLw yllbxx mUrvXk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">268.589.492-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NltnLS ofwudo lUjxch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">098.389.962-43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lJMmBZ ppldZR PBPqvF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">046.190.158-53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GXckCt hINwKe gVySRB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">000.574.016-80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qBkQmd boLFDN cQCBlR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">303.514.015-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sNLgbX DUfOhU SnCpab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">897.648.734-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">osxyKi dadrWX wAddKy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">395.771.701-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mGYBJJ mGPRub JtVbwp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">933.709.656-70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmYaSL MQiEco niTrjd</t>
+    <t xml:space="preserve">992.122.617-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bEtBML KtCdjX WLhSgz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">070.277.444-94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GREAUH WKorWd kdVSxf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">493.599.834-72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNwwKH HnHsHh uePPan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">236.923.879-88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kfBpfD FKuras YteRys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">678.524.509-53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HNujrz icJPxk EMQoZT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">816.181.290-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jBuhjc AOTnFZ phwxUq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">193.340.738-79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMUeGV RABwMg ztPoyr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169.884.063-40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UEoMGQ RQzCda bwLuPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">536.203.805-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SmRYLt nSWAzK rpFJNI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">825.460.125-41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xNTOUS yYyeAu mqyvul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">750.151.392-94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yXxMlu IkoRhK yhCDsp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">292.376.488-69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LtkoBs xOmMrR XiPaLX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">454.534.981-82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PmTLHE sLNVHF gjNIKZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">412.799.569-76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saXfCd KKLclg olxjtt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">901.995.392-51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qiHDaP RQSuvs SzFqtV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">698.202.529-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JDcEng CRLtpo HVTjbo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.412.239-52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cvVFil hxDFGo iocCNu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">473.103.609-67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAjCPg eEtzmV CbUURT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">044.766.956-36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BGcVBr UamiFE XXmkHo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">972.950.895-90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXbZBj zxoWjt RoTUNa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.375.225-32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpihqA dbGVYJ pHkMgR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">775.201.584-55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CnwYgL SUteKe iMzubM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">843.352.636-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFMDcE uuFwaP NLnuOq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">688.009.282-86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZQeCbw SHmTYD PNhklz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">043.019.826-46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xyEzXH ACTgBw babiAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">560.295.117-00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nWOnhS NaaOVO kFKVle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">795.804.618-69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JdrsGW YyYNXb pbeJHp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">595.970.614-91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eLmlZf vlAwzb jfcRIJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">005.988.998-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WeLZKU pyRFGD XCjStD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">599.228.836-66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BmYROS uunGpx ptTqyR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">391.381.412-55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yeYUYR ObFVAr LIFaCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">766.614.269-83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JwaXbH LdpcRz mfSoZb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">792.588.262-71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NxVYWu HbcWBk IjXAiL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">530.255.146-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mQZmrk xHwMEa HXlAwd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230.931.502-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HlEAUa fCOblo fTpmIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">291.435.297-49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QZGvct sPsMra KQMesd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">488.897.715-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JJgScz GfeNcg feGufy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">189.606.099-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zNAoVM xEDTEL YlYOBe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">299.696.865-60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wKPLPk ytfYqa knmwue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">760.237.484-53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nvjZtr KpxsWh gYcTYa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">844.128.738-88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FsSSKX VLokbr IeCjko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">542.188.779-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RWXZWx FgSIOi nMBnnu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">382.608.242-36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gvmkyf LODkde YrZStV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">604.448.043-00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dgZbvy KmUstO LxRpod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">764.567.652-66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mougzh SDNSjN JUNUcW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">298.394.108-91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zgQtig tMMESx ApKteo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">620.770.775-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xhoxAD SAQAit IhuSnY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">668.133.018-55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THEFOR JNQVsr iMjWYP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">048.060.465-32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lmdibs TTMycV pGMlWq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">425.925.362-71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gOoSgz GJhACN gVsARh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">661.775.324-81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QVsbJi swmrxl qeIrMa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">231.851.098-74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rKZFub UlOwHW guMZsL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">689.560.376-64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vGntar rNDWvH IIgVfJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.500.407-61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qvbxQH sQdCFs JTjCYt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">364.173.250-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bGRfAn dRYEkM mKrbPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">912.571.600-71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oZwjTa FjcXyD vZIKIu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">563.772.838-53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUzLJx bVzHPm UsfPiQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">548.718.473-77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wnbOaW DXymdj AAdteI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">057.575.305-52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OxflND XLmVEh hCGDbA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">620.990.953-98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gUkAwG ALDkhH VrDffn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">198.124.850-91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kfZfjh OszeJH pNqJsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">312.251.847-34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fOOyJV iYUxhL QmDJEQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">881.722.120-66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CamloP EykFUn mqWReF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">247.148.497-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iNAlxC vztNJA gudQeH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">884.868.288-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hnGRCd hiAaHz eUQIDW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400.014.939-37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XihoVv OlgcGS bBdJve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">617.826.237-73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GyoJeI zKRohZ ZCtrYM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">501.125.182-72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JyvfsL izMPbT FeeFWj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">487.805.085-58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TpGMIB NOItGZ rsdAWo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">371.873.917-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UwIUSr ybsnFV fscQUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">678.703.932-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qYnwqJ jFAlvx srsttZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">348.685.848-71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLPxrZ IBJqfj NpKaEp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">560.005.614-53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NcgRRl QsLXHL FPiEZy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">862.884.833-34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mpiFoS GYUAHc kArvNb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">377.829.099-88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qbdxJn wMSBKU uWnlaU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">414.794.498-99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QuQVvY TwNPcR JhZERh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">865.948.181-63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukovoK sdYAZD DbxVme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">664.778.240-39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aetiXI biQJTW EYRJHa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">037.525.421-92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZwoYxu dvzSSO hWunjp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">912.523.208-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gdhlBi SmnqgL JgZaLG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">859.736.784-59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aAUtHV xRTvfR EFAPSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">578.992.814-66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArBcbN hWJDEB ukiJtP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">563.629.779-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fJHtiJ fkceYR obIaNW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">770.004.312-53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kJyMwE OSTupQ dJdhjM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">473.042.613-00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VyzwQx OkuKYl FqzWpJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">952.991.840-67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cGblao EAfqPh hmvlAq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">710.242.763-66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xOamhd xaNyCC YeuMXt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">090.057.943-34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kREecn oLUeFA KzXhTc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">249.174.783-71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kGAtwK UPZCaG QIXgXJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">178.329.171-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFIebD cJbTfG MTfxAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">893.579.183-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yCWwHn bGZSJm BhrCWs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">528.444.635-60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tiIUwC lOTiMl iaQYKK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">931.001.592-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IzIsmT vfxGej gYtYCZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">805.589.502-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usWjRH ZrcNaP IxBlUa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">641.452.601-72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bfGyvS bBWgtc TunqFI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">058.744.830-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiHvlM MVJZEw DMsWUI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216.851.749-71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDQqeV yUhOWO GeOlkH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">592.046.546-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IhbkJM oonidK hwAiGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">536.473.692-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MInZIP SiKFsn iZdTyY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">301.308.416-36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNoBvM dwNOGa wHGQbn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">902.793.353-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lMTzvt gbjoLg UtKuqf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">772.225.429-55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wRahXC CwqjVz XhzDat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.855.667-76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amOeRJ aADAjM aVnsSb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">293.683.891-61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kbMlAD XSpeQl tbRuCw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.647.861-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NBYgLF hfCxXD yyJnpv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">302.922.804-85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">melYRS rqcnJn vLILnj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.762.449-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yNwxqI HnszUt LPvKpG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211.840.450-82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acWSVL QWEmBF hnqLPM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">520.755.301-56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZrnPSZ MYxXoY mgZVbr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">827.890.024-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tAmQZT Jztppn mSijJX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">655.921.001-55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TwEXER rboLCz GaWOHh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">079.909.527-94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZxovfG ZZFiJX AWsjkC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">066.641.559-41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mhoWVV oZThWs XLDiwA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">550.221.738-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZeXVJz HFrztb onlSxU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">966.713.341-74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WxpEua jGlYlT GpnsQl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">349.293.862-33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YUsZnv sElGne wIlQSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">542.701.215-50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROydYJ XSCbmP rvYwvF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">493.905.572-57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GVIDEX OduNAJ TEAHQq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">736.319.524-45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WiepJW eVIBgQ PYGDVc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250.329.839-83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vdnJjT PTbntj WvFbHe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">058.291.157-41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SqLSSU iAWDiI VCeSdN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">468.228.523-59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BXnTFw CiFydQ cSeIrH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">002.515.019-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jTrlyJ PdKtUp crjTrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">046.498.445-59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RHexyA DvRcVN EfrTYq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">547.413.851-72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iPRKpJ LFEIGl FzukYy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">438.747.182-55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dHejQZ FZpRtj aWzBMF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">467.394.029-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EWzlwO SwUJkO iIreMc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">599.259.460-68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SbaAUp xXEfnd OBqaGt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142.562.224-47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FwAwzU VDgVKL nBwvaD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">188.502.244-72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKHJQa DFZWdY sCDLkN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">622.667.404-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QsPkzC VoalHv OWFyKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">467.274.686-62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EqdobP AxAiHN repfrn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">431.612.242-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LfBbFq aTxDrc VfbHQp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">028.969.699-47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lpvuEQ bqheaL WfReuh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">290.641.010-39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IajSjz ARGXCR TwrReq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">043.253.067-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zQfQby USretC IckmHp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">664.922.940-70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uOpgti SbyeBD TeeqwT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">384.754.336-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cRaCWA jJGbvw XRjUIh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">090.161.458-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DpWSsn USBTPs MAAhpE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">387.028.770-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xQSVhw HIDzGv YFdGLW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">369.815.288-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCiDlY Yvqzwi bUOLbm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">470.824.751-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gPLvuC UtcaPg OaeFlZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">392.269.338-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOYtAF lYZUCJ nHpRmI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">870.500.047-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nczpuw lhpAIP spapSx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">855.593.521-35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hKHagZ UzHrGv ojWGWq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162.274.758-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vxwRPz hzjZLn sVkKrp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">294.716.702-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaizQA DwlBhi cwZDbs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.573.285-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">srBZnN DAioJT VcVoDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">225.660.897-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WiSwVl SkxtmR uWjeOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">627.130.148-58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JsldHM VnIEHs kuDDli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">458.685.709-88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OYqimI dXjmQd oKnEJm</t>
   </si>
   <si>
     <t xml:space="preserve">Cancelamento Compulsório</t>
   </si>
   <si>
-    <t xml:space="preserve">607.290.570-98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ypCeqZ WTuiEE rBgxod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">246.964.238-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LyUqic Wewuta fPSKAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">701.226.877-72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zaqBkx cpiAnO yQVkdI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">450.039.481-94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QYssrS xvCOMQ meYPGZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">798.828.485-58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZEUQEz HSEAMY tsMmDq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">658.211.727-77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SqHkvT gzSpgP vdhyph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">307.336.192-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HtlDaY RuCtDk PSmiQd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">575.650.475-34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uDwwOi MdZNcX CpmGhZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">628.389.142-99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PhSqjI pOCaLF RNCwQj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">239.804.879-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tIJRul IAlQun ClpYfY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">780.993.775-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XLjRcr CGiTwr cUFsSu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">400.800.169-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RoZeSC slvMGb avFvho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">777.747.008-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VaHEbs YVxICk mGhqgJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">780.032.945-71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BajSBd QhDVOG ecoYXs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">196.789.099-94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YpMmBp tWfXPW WXPVeH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">570.119.363-93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEDPoS KoKLnn BkQgGi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">996.806.354-77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mxKFyk ajqWTD NseZEo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">770.913.572-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sVUrkB hRxETg UqpZPv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">685.768.854-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKUqnR yKVXrH BuBEsj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">728.860.965-83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YjqpqB hfErpU azPIPW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">685.725.104-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lTXJhi TIenQD VyDNQm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">917.119.800-52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRyfaX wZUtrO QFWKrf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">501.892.088-71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iclLEI myAykb TKexUo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200.369.959-53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RSsLel mtNfHE UlQGch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">501.393.229-61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">daNyDe TVKVdX xGNpxb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">382.495.835-61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mwAzoC ofZifS phihnw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">543.830.344-80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wORUzc hMqUrh ZfiycF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">736.272.220-37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WdHZPS WIiRFY zHIvuE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">674.895.539-42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tStNix lIqTAk DHAQXn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">602.764.051-83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LoDqcz PkEpng hSAfip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">595.702.057-60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BsZBfz XAuYpB RQOJVU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.868.639-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sunkft hcDYGm dEQkHf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">010.125.242-70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ycjFpo BYofqk XYMfOC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">731.744.273-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bZNBnI VeTVJm oJopSJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">902.816.446-82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rAExkD VomqjY otqkMJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">183.484.339-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nuOLRZ IbfVlm ZvbGvV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">254.365.658-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">myqRfF hLqxiE kHGvqF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">043.359.418-37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zHWbuz ipzPPz hoTwYO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">620.535.227-84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RmgHQG AJqkcE UysHIq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">332.360.753-90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bPPnyi MrTwGy HmsaLM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">267.892.895-96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ywVWTw PButYc wJCfCV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">268.275.892-36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ckmdGb MceLuc NmUQTm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.760.640-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sYdMOQ kjhJiR xMFMME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">483.010.056-65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dmtDsP PuEwpV qhXeud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">948.376.037-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LiIYlJ MTMDQl WkAItf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">458.039.175-32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uXLjpf DYkeaT cgBdOx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">717.479.128-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QMmnaj OYcxeF Nalgmk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">695.807.041-54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yKfJEo pZzswD PCQLCp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">956.052.600-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snIiRq VETSrN qBXrXU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">978.465.232-59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kdaiAu odYOcW aFrEzw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">975.640.151-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WRCjyc RbsMkO IZyVIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">421.162.926-62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logmiV oIDjfM YrImIY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">798.151.155-98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hpwpwt jPSiiT FxDUHE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">834.527.027-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zMIJLd waaOTu cyrtGt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">427.151.224-55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xlKfpn meSAaF GUymqx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">335.904.205-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nqrhfP dVPUxZ acFDoo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">715.038.023-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MoQNDr wpAIeo MTvLEr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">937.336.032-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OlCLAB NbbVsM FHGamR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">465.754.679-37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xSZaiN MwIDhx yOEYRk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">206.595.351-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JHxVCd KbcoYS jtlvTn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">581.857.822-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DWKuiN mXHUPs QFxsvs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">273.027.647-92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lvintq EsQjQG oMZaRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">682.428.968-47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HWAGWg tTJuGZ yVMuTo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140.145.442-33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qpbzpX vJCobr oCFsnp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">216.526.878-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QlhDAk McLGIQ qvVVkA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300.894.104-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OdXoDx QVjGtb ElJgzx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">665.490.800-60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TElJOE FdANbC dgHfeq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">315.359.816-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bKhvpx FTLAfS xIawmu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104.610.573-40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qzUGSy GdzAGg glCTNr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">490.676.089-44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QdQWfs hXDEBn ciSlwB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">744.764.904-71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xZnLjK roWoSW UMbVyB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">878.249.694-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xqVYyi pjkujC PyBxGQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">602.656.350-73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qmkggh xhdKGy SFLWvt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">633.555.715-44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUZnHJ xNHnXV dhFvpi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">562.841.038-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yrkdQW bPvBkO nwVBxT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">291.325.347-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YtEbGw uGlkkz qpNxBW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">502.819.819-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aokMYF QsVvUm RMOhQW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">753.922.733-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XkUhNC mrayZF NdccTt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">614.029.983-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qvRmkm aepuHf ACUDTP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">037.821.316-51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tspQsQ wXLKjo wUMvQC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">729.295.247-67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CoQhFB ThoXdU xtNueG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">259.106.439-49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TZbAlA TBZLEv VZhJIf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">869.717.908-91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sKBeBZ rIBAXN VKCQWh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">351.083.325-76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfrZEF drpTes BAOqcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">265.032.218-89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cMudRh geQNys jmDPMs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">302.935.862-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FkPEGi ndgoKD kgyXoj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">641.776.530-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wwrEmC Ydqztd ZbjPEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">662.203.760-75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MDEjss EuDwhC MUZpvn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">283.406.539-35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wZOtOH swhdXw qjZytR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">577.445.264-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lwNVmm BviEoy lpIHDk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">023.781.240-36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XBTdWl CiGvvC TqCTNm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">587.302.501-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CyBOKp QFvDDo xVgpSm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">895.092.410-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KJjTXD HIAxCD jRbzqg</t>
+    <t xml:space="preserve">771.591.246-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mawMYa MBwRZs RPCvrr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105.125.262-00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USUWmQ ZuQyjt WQZQmy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.091.707-94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WwrQJD ZKxpok cTqupw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">302.461.300-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ncQTLC urHdZs WjfuKr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">665.956.114-87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jeetnJ tbmgtw WtKVSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">824.246.401-59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YVySFg WttIds VVbMql</t>
+  </si>
+  <si>
+    <t xml:space="preserve">475.548.120-72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vlfdwd gOluMY sWXtLc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">871.050.795-74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vWhZKt FjAZwM VNsIPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">054.698.782-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rPKBqC ZHBVXf zijpWb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">975.988.840-81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gNApHU mwBJPO UtVOtO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">263.441.114-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rUMzOm esjfNj lCLSfg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">551.335.853-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GHKliT aQxCiT TjPCyY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">614.632.423-92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KJWPEL JzkkGL DYgLXY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">967.346.331-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dQekbb BBmmIy YOgzwm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">459.199.707-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kcBNQE gTJPxL TtkLMy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">040.668.431-95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HgJlJj CIiIsb FRiKrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">705.236.451-72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AckSEM fiLTxs ynZNOw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">773.711.504-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mOWKWf VlxqMU jpHwwO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">385.848.586-39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sEjrFq KZjiQi uInkeb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">046.751.085-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BzLaMr YnOPon yYhTAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">264.610.389-42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OAmUdE VXyacG ySwkWy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">534.920.212-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sjIuAo lEpkpI EwxXNg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">636.345.381-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xKoFDk ORsRUY FSiYkJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">262.195.692-78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baBvpR AXwVxk kzMfKP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">496.917.257-74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QOjwqD tNbkHJ Oeuaai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">577.589.866-81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tgVPHE NuiibF dAbDsu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">570.162.149-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dvWNfP NBCBiH Zwkcoc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">729.998.203-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tDEaAa izLyiy DfxESK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">933.537.123-33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yzYQju cASYam ToPQWw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">790.641.975-86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iuUVxF Dlymfn lcQqeW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">907.777.318-53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FHRhUE aZafYk UAafQy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">918.548.801-33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nftZcT MLRTEe TaOleS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.469.301-48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tafPep wsDqOv YebrbW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170.909.211-99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xFHzma KHKGWP BSWhDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">262.082.211-38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YDDIOB ksFcvr ZNRiIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">079.020.540-98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cqNAKF NgcsEt NonGUy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">220.999.866-57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTfKTW jJtNkK RVYjSb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">240.784.361-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jfLLzt AZlpwt ELgjcA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">309.935.317-63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YFjpfC SKpvuL QzgFNI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.394.482-36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeHsIw CmJzFG XfxhWO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">531.660.858-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mQqcfo eaZkCh plHVms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">676.795.950-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eCMotW qKDLrO uSgKAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">280.111.859-39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iApyUs SWSyQG fJMSkQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">733.689.808-43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pslRZu wgxzBO hLvusW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">533.371.215-66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pBqAyo EuIqZC gLwGFn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">174.647.855-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aUGlee GEcuhM LPbTXh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">012.843.987-88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eZejgB lHODXs oFHVMV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">062.267.857-87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YSihWR rKiJOv LvCTqQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">362.644.182-65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jdjGTW eMBFgr QqBMHm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">674.904.516-83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMwPIT KvLAGx uHQSWR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">401.092.569-00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dUJegQ kRDbOS YBtHtx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.067.783-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XCJHAy ZBWyPL FlYTGZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">476.859.909-80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KnMkfU lOTKJe uVSfAm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">724.087.740-58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cvwbVI Vlqrbl BFdudC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">879.306.591-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qKridQ Yjhlwd NDsjUK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.689.928-86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scXjfD BhZxSY eJgrRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162.018.223-62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yIKDUJ lOrVqA JGSvcI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">360.084.294-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AvFNlw rVgYtd itfzYu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">320.096.401-78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MHpDOz vHLqHQ irHupj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">541.036.757-97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qEjZZC hkknOc cSTlDY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">403.268.343-96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pecnpB cglgQy DGJbyi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">738.566.965-62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WpXsOp ECknOZ TrnYWC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">898.772.295-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADZaUP zIlHFh qXjYYm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">175.382.936-58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MkyflI Qosrxx VWYOBU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211.332.894-41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dtaNAw VHcLdD dnczRn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">052.096.846-93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eetagN coKbLs ilFNzJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">094.628.714-84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIJpXF KbRADs Tchawc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.737.610-52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WJabrP mcRpIm ekkxrM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">268.320.023-77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eocfqY AKKbGM qiXNoZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">308.835.099-51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YhYsmm aktiUW kBIKid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">962.926.539-99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kGydcx MagrmS PQduRF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">428.391.274-32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tJtLRG zUEiKh TYKOOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">054.013.309-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WPeymM PmjCgS BRrsmz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">039.771.176-62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDmFsg uCyMWe lsJGJH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">443.656.195-50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BPCaPO XOSZxI dGMcSV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">764.514.690-41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HxfTjp TmXsRQ VzzamV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158.291.284-52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pYsVdZ DEUHQp hDtxiQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">260.024.698-63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JeWfei ewGCLj askjaB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">314.687.459-44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OXFJsv AxyfOf tDwDrY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">813.609.127-55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AbuMRI UloRPq XnfffH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">944.159.107-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rByvQI OMnYGN tmzfpA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">322.322.140-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OlUEwD ZDmdJP tSnQVZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">518.471.434-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fjgftM sKktWD DZECGz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">768.286.379-88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QohDpk tYYhnk bJhCpj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">841.570.405-78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yIdJQE ZHhmVR DYkzDl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">796.249.353-44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IONlnQ xqaeNi gWImgh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">471.371.397-68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PfUwTa PZEKdo DRfygV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">772.038.925-37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WKJzNt sySAtt AWaOAr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">041.643.099-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPolfA hBtVQr ComyJl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">850.579.072-44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wgmNLZ cXGISb ZqiPLW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">530.005.864-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RmoAyo RNUrvF Shnzip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">021.776.934-88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HFakIP JbVZvo bWJhED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">387.278.696-86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uZZwuy yfTCuT ymGKYD</t>
   </si>
   <si>
     <t xml:space="preserve">Estagiario (Concludente)</t>
   </si>
   <si>
-    <t xml:space="preserve">479.396.247-74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iKXkAR poqSwA HFGdxi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">042.721.612-68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AcfKUJ gNSCFp ppMmeX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">535.811.872-44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aOYnAl yDqtgP sURAPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">493.335.250-80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dhkhIn VpRwYZ YHolis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">739.938.118-89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tzueri ReCxbf BPwJSx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">701.641.333-53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QMkEjf sgJUMD HmIkgw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">464.717.169-94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZSVEqF KUNNRy KPSuWG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210.872.696-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sZLrUl VTawHs CTPYIs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">400.063.594-52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">llQrdp ZPojLy dGaNVZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">566.818.673-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZIpkhs SMGSIO EJtFpF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">318.420.700-74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZPvJil NjRfrd rJSzdv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">446.794.480-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XADCwC YnLaBJ Bmefnr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">237.776.729-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OiRFNH dZnNZa qhgvTw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">468.851.360-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iwvXSU eFvorC KWHcrA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">328.760.737-46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IkXftZ wdWBYW sNUNzN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">873.757.330-49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">katKMh bAAvfl LoWnLx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">291.223.554-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dlswXt UeuiPE nzOjPx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">739.455.562-47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XXFfdm paDreM ANVuWP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">713.745.673-35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yRMize zzEmJx qpqgku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">722.768.663-96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EfIONu ZMxCFR Jhfdan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">412.442.367-72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XzHkwR epwgSB GUxhRU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">574.042.191-51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GQKThm EaliQu WxVaVM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">310.453.425-45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MpsYpO jJRyzs DmCvfF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163.302.530-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaJQoe vsPrlI AUftyg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">620.273.642-81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qmwCeu gDYmNb qnSRNt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">502.188.589-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psiLeZ pUITaf ACtVBP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">834.160.215-43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aoGNsx uxxXQE tBgarY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">962.016.038-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KWQiKO VazaqN QmZxUI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">341.480.013-78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mMdCIw AASjED oXFbYu</t>
+    <t xml:space="preserve">869.164.247-72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mouQRu GkemQT MoACQK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">918.144.070-60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hyCpEZ FzwkLB cZRvzO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">896.573.180-83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">llzVlY drEiIh UavMlO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">510.347.092-74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dZQash yyCDDq zhSVBm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">752.378.376-93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsWWNJ TdyUdU jzBuFl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">860.093.603-49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kVBYRf fJMeVd KEOKBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">278.451.269-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xmWlhz OliAfq ZCXzLL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255.014.272-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oQuuDD PDnLxD nJFexn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">077.841.748-32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AJqFXQ lmGtwD xJnKol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">768.396.539-46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acItid xiBPDH SNibmV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">805.898.424-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vIsMHt nvIXIb OfPpTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">663.244.877-86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FGKDKa FHahwr HaLXnA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">031.591.302-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vIMeSI pmfXkn oxNkHj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">090.068.311-74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUWBVK cQpxVE jSlKIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">921.353.375-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MwrQKH eZajAs ZOVvdL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">968.408.349-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yCuwUu WhOvyy jBoARb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">948.531.976-53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VvfOFq qgQuuD BHpGuT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">468.152.824-85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rndOuJ dmwrib ALUZis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">584.905.602-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMjUHq QioeNc DnpleW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">467.304.164-57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JbcGVH AexKuZ tMtIbX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">587.678.731-41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PApwXK OPsddn YxHZtL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">729.156.232-61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fIHqbH hRNGUR yvAjcj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">627.163.066-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XqLtlJ vSHWkB idhjRU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">955.960.178-53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vcgTxg ZgStRT EBrZYI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">477.009.531-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GgZwSt qHOuGW mnKZUW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">937.431.054-91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ycJZNd aATdlG JXOeWV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">415.964.640-97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">btPvDF taViPN gGajvW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">599.960.428-70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kjFnoH cxREWO gwhoek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">927.584.454-60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsXZJr YmkibO efwuUa</t>
   </si>
   <si>
     <t xml:space="preserve">Concludente</t>
   </si>
   <si>
-    <t xml:space="preserve">247.172.158-46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rphvhp TQBGHR Rmgija</t>
-  </si>
-  <si>
-    <t xml:space="preserve">936.298.983-33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uiTbSN WNlqfp qqGxBj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">027.046.301-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yzapMv dnoPZC EVfqJP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">983.324.528-69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yVACwk BPVFuu LLAkYD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">782.553.667-36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kIDRzC UskqWr rQcwRb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137.855.449-74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eyBkzs OAOOCF ZOqPTr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">967.443.818-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IoTmeV GGHwBJ UlwEns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">294.393.662-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tNlcuL oXACIl BhLziI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">855.125.201-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zuCicF ludwNg RmMmac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">203.439.384-53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uncxrb hjsvJi JdSebe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">894.636.311-78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YUagtk RcZtpv klmHyl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142.391.925-84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hPYJfg dpUiar GWZNZq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">364.318.758-71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YcrhVF hFLWAT caGhNI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">454.384.612-38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biHqGh kbqpeo HrVWoU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">096.873.772-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CnfTim hJjMWu qqZnmS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">802.285.388-83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UhMMpR cGBlmM ACAUrz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">189.411.215-79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fSgvMl iwXRls oNrflj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153.080.506-36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JMWKrN Wovnxj sQWqcA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">884.541.905-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fHGRNt DGeMdT DQKuNz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">985.417.222-79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VadpJk iBhVMA zqjuFl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147.946.276-95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LhXaWz lCLMwe otcUvV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">916.800.170-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SrepZL ojMqvp xkKWTg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">271.875.380-74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LbdtXQ TeADxG yVWvEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">262.086.566-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bMYnKa YCseuN dcrAjv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">909.387.557-43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeedJr XvOSWT gqquEb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">380.445.142-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lUVEBf Jtuskq bbAeBf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119.605.721-86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iqzOwz LvVUuH YrOhKP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142.361.595-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pQDSoJ QNCtpM efXfJa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">998.362.985-55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dHKzgP rxrnfi ianJpc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">081.230.275-64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZRJoLP nDSywI PwuTeA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">470.286.281-96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsGfjB SpBETh bWsFXd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">244.454.138-65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UMAiUB tAnCzK vheNYQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">976.754.287-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IxWABV FUTjTj VZSqOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300.189.637-49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sWhlRF KTIlss gHSXLP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">389.462.902-69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WyVxzs Qmkvhs hKQDax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">751.592.938-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QGgDUs dODJrs xifKwl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">086.766.889-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bEsAER YmMDlF cYdgBk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">232.394.069-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NMynlo jIHKTr ClDWfO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">784.306.148-94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FGmKOG Fpihux Bufene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">088.882.745-36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tKyGAJ IMNuwK uVLCio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.823.704-99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JkgKxD UJahkI zIQGwn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">184.563.644-41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PBpsfB tmRNcp kucBel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">466.283.090-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pwyecg PSTjgS HZfGgE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">587.072.112-36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xrrvyI KgQKdp ssFcWg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">284.094.967-55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cRFEiB pGcPZR RZaTDf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">646.666.007-86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CgQXDi QUEuqN ANDsHe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">091.904.855-84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">giwnEU jBwnNF CbCzVP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">081.227.595-85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XhdlXn IHcEDJ yWMhMM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">292.460.668-68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PXvnTU gwrTNb poQzUI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">810.703.332-91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jUYeIv SVNanf XrDxdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">314.295.430-88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BiEEBv zudUTS yyCcJG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">296.510.079-83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RLkKCq dNEVFh RDmhFE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.273.305-91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RoutMW rxuatr MbJsvH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">974.518.773-38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OUkikq TwVnST cTgwJS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">612.636.656-75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BxhXIq OBNMIl cmZUag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">584.587.186-72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cnwYzt hiammQ wwlpzU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">909.984.906-69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xzIjNW kpYiXM syhTKi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">614.796.982-44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oSgcct QjtMPd uPpffO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">675.581.883-34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MQkGbt KqBdCY XkhujU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">763.959.783-51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GkFpii TzIaBO AgbLvT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">315.219.005-62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dcCsun Dqvonf ozAaOd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">191.196.566-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wqOLhq tdiluC EcYQkF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">234.804.141-53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JmxIGV MuKEuo yGAwnu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">222.047.995-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wOikue RasUzP isMCgs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">661.685.603-65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kTJQLx lyANII SXyBXs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">345.913.557-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCTMGy rqxxqH hFYiGq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">999.759.147-79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZUGgmy hqgTcA OSTfMz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">261.780.873-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lflhGw ZdiEag YnVymZ</t>
+    <t xml:space="preserve">003.030.523-42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZUjVVa otGdpn YxdJdp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">527.402.320-47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tGtMji nVCfoA KRPlqr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">198.206.777-35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HvcywW YzLwGp PNeaTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">661.775.453-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grluLR nVtfKL EyqWDZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">577.173.834-77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atqvfz Vyblze CfOdYX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">048.930.568-00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cJuxCc XfGnqT KmfdCp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">431.840.657-89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yCkcDM WOZcSP aAFVdR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">610.916.811-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZlPTvN HfJTin CZlOvC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">554.627.535-66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILNCrO IevLTq ylxscD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">562.558.649-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GvxzGK OILubK iACnur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">372.561.968-43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEAIEN kpbwpy HfIQNf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">750.058.460-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EkXhEn gsKpVG hijzuO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">069.351.568-61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VKJoGI ixLqzp tAcuIy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">043.672.853-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jHKBNG gaCkSH aVCAEs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">662.443.730-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BGxJMM bkJFBn DpqldF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">199.683.185-92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vyqLww PgwmFr ICcGXZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.876.786-82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NHgZKg PONfdU ABKgRk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.311.787-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DfiWyG iwdQQa iHnILV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">047.070.283-46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crLnLj Sbkhvg VyBCSj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">099.383.080-72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAIKGz tIzAHY FAZSCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">503.680.734-78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MmZJMr GvmBBE keBDEI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.787.085-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YsmeuJ vnqGNf NZbhmS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">691.880.876-97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iSHPcp qagxDw uKEWMB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">363.391.344-00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IWrmET WdzSSJ gqkSPW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">932.691.412-54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iYRGwH Izcifp ehAPrS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">542.019.027-99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jPUiDJ JNXNxz LwCaPq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131.583.420-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qaBKSR QLeNer dFOvub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">820.272.326-96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pBniST FKZJru SuIjxi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">973.380.087-66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tYetzO qdNeWr Uxozzy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">459.458.845-50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZSjoca RgkEME GIXzza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">837.973.721-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fPPIIW IgnBne ZVBmWw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">970.109.011-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCtWSJ SgdgAH uGyijc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">748.227.160-47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rkQhjD ycCpGY uNADvu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121.889.331-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kEWamA mATAZS urCBmN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">002.977.602-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nJKwRv lXoLej zcXuYC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">913.044.525-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ffDIUF XFuMTF UQENJt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">778.256.622-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JRFKnA TmwHbp iHEdaU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140.823.304-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfIxsq VKWQMM BclcNs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">940.092.173-92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gUTjjU MaBZsh XFCSrv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">541.094.881-59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DnVUWb eOTFIK UyaakY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">621.089.350-59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MvwKje YmnRBU CgyrGT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">815.730.201-56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xkhTkj IwLVdm omoQNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">960.693.529-35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JjkLAf KBEFVT XvGrtI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">445.728.043-82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">utsVyx OKbrNx dDNtzw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">713.642.440-81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KGxCIz rvdUOy qqFiet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">033.073.048-50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nzcktk bpIQpx kZfLio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">663.612.516-63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tLipzj KzUaTZ iYoXeB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">549.839.103-48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bImxkV xbxfxP vrIFnD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">892.005.870-46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nhjidX iguqGW CdKhfy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">893.722.026-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAZYGH PDhbJW KqDSCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">632.675.749-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDPXES XhxKqL bvRtIY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">504.597.809-77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yydnnd eeCLTf tyrxeZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">983.305.624-85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YFFDnt rVPevo NNKnOu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">189.582.143-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jBbkkx DKWSit EvjiYf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">426.296.909-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MdxXRK zJsHPp WmJKEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153.380.947-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZOVPdM YMLqHr RcYpQm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171.783.739-82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNEVrs PxyOcF mxUfpo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150.572.118-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TzIYjH uqynLS tBbYDm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">837.997.954-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KiqUVv znFEXH zqwMnW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">794.774.321-97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rWHAbT aSkyVp NOaoBV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">424.335.622-91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dPtOGV Homrhk jptcdP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">243.312.442-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">veWGMe kZzKQD zFrleX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">879.967.185-00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRPAKQ XSqAoj ZHlAxS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">792.510.464-99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MadSZO pFDVLP NGeJPw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">477.957.213-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YIipcC leMpML coBlOk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">963.021.214-93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JttZxf fwWayE qtvMZB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">937.249.590-96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dRCttc XAbaun ZwIjwC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">271.705.341-71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBgLFs eUmSvk iFozJi</t>
   </si>
   <si>
     <t xml:space="preserve">Transferido Externo</t>
   </si>
   <si>
-    <t xml:space="preserve">798.426.589-52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WWZsWi INMxCK GakmrK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">958.519.706-40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UbDfil JVvudF yzssEG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">939.568.461-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ruTpBf VefohY KRHMoY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">717.396.401-63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XVhtub jbtrrq puVXMV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">264.504.753-74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hjcqrh HhHJbC ESWTHw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">178.814.247-63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jPCeuZ voMgrR BRPTjx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.072.277-42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XjhDjN wiLhfs BqNNdI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">375.016.025-77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RTSXGy Jmiucs FnNfXW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">297.884.145-86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xSpRyZ QpaDTb yfXnch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">537.160.173-85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XqcOxu NNBNOn TOviGw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">993.693.322-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NzxtXa MsqNWh RgRHId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">663.517.145-87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yLUkLB repGTt WfoJub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">391.242.128-97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KeTCKE fAQZFp gswFIj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225.367.552-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dLAwCd bBWNju icMpba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">220.968.741-35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iYrkVF DlNPJf PJooPK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">282.166.891-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ItoQiG MStiHU jqevWe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">720.062.641-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wgplFK rgQiCz BydOkH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">323.311.844-80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hETnhy gEWmOb AVTvXJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">186.220.805-53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weJLzA tNkOUI coLkic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">237.497.834-89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KMBNyh HwzuuF BHdUKn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">981.829.204-86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gfpMiw goHdLD dRaUye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">697.806.945-58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jYihjt VoviBC hZNSQz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">178.894.313-70</t>
+    <t xml:space="preserve">967.469.945-43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NfxMXL FvzGia NCdkTB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">541.979.451-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cqIZET mRgHCj DXAUed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179.557.540-79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TtTBXu zuyTWx DgeIgY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">525.575.309-55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tKmtfp JFpgps ESHXuy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">801.699.887-48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oYPltt IGLCmO HYgyZb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">459.077.321-66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wVTDUU tBUtCZ byRAzf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">880.644.554-92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RkfSsj ZBgrxJ dVottk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">182.987.387-93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IGfZLn HpjdtS dtHxuD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">223.623.644-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VjtHyy ZOuwwu orjrKV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">532.008.055-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shvQrd sqjBOF qkTmFJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">719.758.787-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BaHQlo KzvkqF RPzjpz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">521.199.491-35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fmFJHL ddHDsC AzIZva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">648.051.817-73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cgJdNK SkSHxQ uYGqFy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">609.034.266-43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZwktHY woogNI wjJyRm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">553.635.084-53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DPykug IsrTwX MvcXqn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">507.254.977-44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPrJuu EaWlSx SsYXOb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">533.414.018-38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wOegjh wByNCN OvpDXl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161.409.540-59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AhcXas abFcDj CmKUGb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">994.367.259-57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LwBBLL XeHqME MrQzcQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">420.839.748-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NZOHcj Gtoyhx hnfGNt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">421.424.355-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iHccOT ltgbLI InrTsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">735.646.603-68</t>
   </si>
 </sst>
 </file>
@@ -8108,783 +8102,783 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B431" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="C431" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B432" t="s">
         <v>11</v>
       </c>
       <c r="C432" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B433" t="s">
         <v>11</v>
       </c>
       <c r="C433" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B434" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="C434" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B435" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="C435" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B436" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C436" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B437" t="s">
         <v>4</v>
       </c>
       <c r="C437" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B438" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C438" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B439" t="s">
         <v>11</v>
       </c>
       <c r="C439" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B440" t="s">
-        <v>828</v>
+        <v>11</v>
       </c>
       <c r="C440" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B441" t="s">
-        <v>11</v>
+        <v>828</v>
       </c>
       <c r="C441" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B442" t="s">
         <v>11</v>
       </c>
       <c r="C442" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B443" t="s">
         <v>11</v>
       </c>
       <c r="C443" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B444" t="s">
         <v>11</v>
       </c>
       <c r="C444" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B445" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C445" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B446" t="s">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="C446" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B447" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="C447" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B448" t="s">
         <v>11</v>
       </c>
       <c r="C448" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B449" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C449" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B450" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C450" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B451" t="s">
         <v>11</v>
       </c>
       <c r="C451" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B452" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C452" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B453" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C453" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B454" t="s">
         <v>11</v>
       </c>
       <c r="C454" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B455" t="s">
         <v>11</v>
       </c>
       <c r="C455" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B456" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C456" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B457" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C457" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B458" t="s">
         <v>11</v>
       </c>
       <c r="C458" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B459" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C459" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B460" t="s">
         <v>4</v>
       </c>
       <c r="C460" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B461" t="s">
         <v>4</v>
       </c>
       <c r="C461" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B462" t="s">
         <v>4</v>
       </c>
       <c r="C462" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B463" t="s">
-        <v>769</v>
+        <v>4</v>
       </c>
       <c r="C463" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B464" t="s">
-        <v>11</v>
+        <v>769</v>
       </c>
       <c r="C464" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B465" t="s">
         <v>11</v>
       </c>
       <c r="C465" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B466" t="s">
         <v>11</v>
       </c>
       <c r="C466" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B467" t="s">
         <v>11</v>
       </c>
       <c r="C467" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B468" t="s">
         <v>11</v>
       </c>
       <c r="C468" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B469" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="C469" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B470" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="C470" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B471" t="s">
         <v>11</v>
       </c>
       <c r="C471" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B472" t="s">
         <v>11</v>
       </c>
       <c r="C472" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B473" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C473" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B474" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C474" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B475" t="s">
         <v>11</v>
       </c>
       <c r="C475" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B476" t="s">
         <v>11</v>
       </c>
       <c r="C476" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B477" t="s">
         <v>11</v>
       </c>
       <c r="C477" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B478" t="s">
         <v>11</v>
       </c>
       <c r="C478" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B479" t="s">
-        <v>965</v>
+        <v>11</v>
       </c>
       <c r="C479" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="B480" t="s">
-        <v>4</v>
+        <v>965</v>
       </c>
       <c r="C480" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B481" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C481" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B482" t="s">
         <v>11</v>
       </c>
       <c r="C482" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B483" t="s">
         <v>11</v>
       </c>
       <c r="C483" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B484" t="s">
         <v>11</v>
       </c>
       <c r="C484" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B485" t="s">
         <v>11</v>
       </c>
       <c r="C485" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B486" t="s">
         <v>11</v>
       </c>
       <c r="C486" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B487" t="s">
         <v>11</v>
       </c>
       <c r="C487" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B488" t="s">
         <v>11</v>
       </c>
       <c r="C488" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B489" t="s">
         <v>11</v>
       </c>
       <c r="C489" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B490" t="s">
         <v>11</v>
       </c>
       <c r="C490" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B491" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="C491" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B492" t="s">
-        <v>769</v>
+        <v>112</v>
       </c>
       <c r="C492" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B493" t="s">
-        <v>11</v>
+        <v>769</v>
       </c>
       <c r="C493" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B494" t="s">
         <v>11</v>
       </c>
       <c r="C494" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B495" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C495" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B496" t="s">
-        <v>828</v>
+        <v>4</v>
       </c>
       <c r="C496" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B497" t="s">
-        <v>4</v>
+        <v>828</v>
       </c>
       <c r="C497" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B498" t="s">
         <v>4</v>
       </c>
       <c r="C498" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B499" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C499" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B500" t="s">
         <v>11</v>
       </c>
       <c r="C500" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B501" t="s">
         <v>11</v>
       </c>
       <c r="C501" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
   </sheetData>
